--- a/data/то_что_отдадут.xlsx
+++ b/data/то_что_отдадут.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#python\SchedulingClasses\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="22080" windowHeight="9780"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="22080" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Линейная алгебра</t>
   </si>
   <si>
-    <t>Зверева А.И.</t>
-  </si>
-  <si>
     <t>с</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Маслякова И. Н.</t>
+  </si>
+  <si>
+    <t>Зверева А. И.</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -449,10 +449,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/то_что_отдадут.xlsx
+++ b/data/то_что_отдадут.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="22080" windowHeight="9780"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="22080" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,5 +581,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/то_что_отдадут.xlsx
+++ b/data/то_что_отдадут.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="22080" windowHeight="9780"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="22080" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>ск</t>
   </si>
   <si>
-    <t>Нефедов Ю. В.</t>
-  </si>
-  <si>
     <t>Хайлов М. А.</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Зверева А. И.</t>
+  </si>
+  <si>
+    <t>Нефёдов Ю. В.</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -452,7 +452,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -480,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/то_что_отдадут.xlsx
+++ b/data/то_что_отдадут.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="22080" windowHeight="9780"/>
+    <workbookView xWindow="6720" yWindow="0" windowWidth="22080" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/то_что_отдадут.xlsx
+++ b/data/то_что_отдадут.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="0" windowWidth="22080" windowHeight="9780"/>
+    <workbookView minimized="1" xWindow="8640" yWindow="0" windowWidth="22080" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/то_что_отдадут.xlsx
+++ b/data/то_что_отдадут.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="8640" yWindow="0" windowWidth="22080" windowHeight="9780"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="22080" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
